--- a/dados_climaticos.xlsx
+++ b/dados_climaticos.xlsx
@@ -3,26 +3,32 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Clima" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -34,17 +40,46 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFD700"/>
-        <bgColor rgb="00FFD700"/>
+        <fgColor rgb="FFffd700"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFffd700"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFffd700"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFffd700"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFffd700"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -57,15 +92,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -142,10 +185,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -172,82 +215,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -259,152 +302,174 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,199 +477,538 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="21.005" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="9.005000000000001" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.005" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="28.005" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Data e Hora</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Temperatura</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Umidade</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Céu</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Alertas</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>02/12/2024 11:05:01</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>29°C</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>60%</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Nublado</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Nublado</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Alerta Laranja, Tempestade</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>02/12/2024 11:08:18</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>29°C</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>59%</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Nublado</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Nublado</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Alerta Laranja, Tempestade</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>02/12/2024 11:18:41</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>29°C</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>59%</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Nublado</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Nublado</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Alerta Laranja, Tempestade</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>02/12/2024 14:37:41</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>29°C</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>58%</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Nublado</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Nublado</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Alerta Laranja, Tempestade</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>02/12/2024 14:41:22</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>29°C</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>58%</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Nublado</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Nublado</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Alerta Laranja, Tempestade</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>03/12/2024 08:48:29</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>22°C</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>97%</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>Chuva fraca</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>Alerta Laranja, Tempestade</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>04/12/2024 15:08:18</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>19°C</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Nublado</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Sem alertas</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>04/12/2024 15:10:36</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>19°C</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Nublado</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Sem alertas</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>06/12/2024 12:56:46</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>30°C</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Parcialmente nublado</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Sem alertas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>06/12/2024 13:01:00</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>30°C</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Parcialmente nublado</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Sem alertas</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>11/12/2024 09:39:33</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>21°C</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>81%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Pancadas leves de chuva</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Sem alertas</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>11/12/2024 09:48:32</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>21°C</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Nublado</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Sem alertas</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>11/12/2024 09:59:01</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>21°C</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Nublado</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Sem alertas</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>11/12/2024 10:06:26</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>21°C</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Nublado</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Sem alertas</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>11/12/2024 10:10:27</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>21°C</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Nublado</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Sem alertas</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>11/12/2024 10:13:31</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>21°C</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Nublado</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Sem alertas</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>16/01/2026 16:33:45</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>26.17</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>Nublado</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>16/01/2026 16:33:59</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>Nuvens dispersas</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>16/01/2026 16:34:18</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Santa Catarina</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>Nublado</t>
         </is>
       </c>
     </row>
